--- a/website/data/reports/bank_data.xlsx
+++ b/website/data/reports/bank_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>Principal</t>
   </si>
@@ -256,6 +256,27 @@
   </si>
   <si>
     <t>03/02/2022</t>
+  </si>
+  <si>
+    <t>04/02/2022</t>
+  </si>
+  <si>
+    <t>05/02/2022</t>
+  </si>
+  <si>
+    <t>06/02/2022</t>
+  </si>
+  <si>
+    <t>07/02/2022</t>
+  </si>
+  <si>
+    <t>08/02/2022</t>
+  </si>
+  <si>
+    <t>09/02/2022</t>
+  </si>
+  <si>
+    <t>10/02/2022</t>
   </si>
 </sst>
 </file>
@@ -598,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L74"/>
+  <dimension ref="B1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,7 +684,7 @@
         <v>30000000</v>
       </c>
       <c r="J3">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L3">
         <v>9402.739726027396</v>
@@ -680,7 +701,7 @@
         <v>30000000</v>
       </c>
       <c r="J4">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L4">
         <v>18805.47945205479</v>
@@ -697,7 +718,7 @@
         <v>30000000</v>
       </c>
       <c r="J5">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L5">
         <v>28208.21917808219</v>
@@ -714,7 +735,7 @@
         <v>30000000</v>
       </c>
       <c r="J6">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L6">
         <v>37610.95890410958</v>
@@ -731,7 +752,7 @@
         <v>30000000</v>
       </c>
       <c r="J7">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L7">
         <v>47013.69863013698</v>
@@ -748,7 +769,7 @@
         <v>30000000</v>
       </c>
       <c r="J8">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L8">
         <v>56416.43835616437</v>
@@ -765,7 +786,7 @@
         <v>30000000</v>
       </c>
       <c r="J9">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L9">
         <v>65819.17808219176</v>
@@ -782,7 +803,7 @@
         <v>30000000</v>
       </c>
       <c r="J10">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L10">
         <v>75221.91780821916</v>
@@ -799,7 +820,7 @@
         <v>30000000</v>
       </c>
       <c r="J11">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L11">
         <v>84624.65753424657</v>
@@ -816,7 +837,7 @@
         <v>30000000</v>
       </c>
       <c r="J12">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L12">
         <v>94027.39726027397</v>
@@ -833,7 +854,7 @@
         <v>30000000</v>
       </c>
       <c r="J13">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L13">
         <v>103430.1369863014</v>
@@ -850,7 +871,7 @@
         <v>30000000</v>
       </c>
       <c r="J14">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L14">
         <v>112832.8767123288</v>
@@ -867,7 +888,7 @@
         <v>30000000</v>
       </c>
       <c r="J15">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L15">
         <v>122235.6164383562</v>
@@ -884,7 +905,7 @@
         <v>30000000</v>
       </c>
       <c r="J16">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L16">
         <v>131638.3561643836</v>
@@ -901,7 +922,7 @@
         <v>30000000</v>
       </c>
       <c r="J17">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L17">
         <v>141041.0958904109</v>
@@ -918,7 +939,7 @@
         <v>30000000</v>
       </c>
       <c r="J18">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L18">
         <v>150443.8356164383</v>
@@ -935,7 +956,7 @@
         <v>30000000</v>
       </c>
       <c r="J19">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L19">
         <v>159846.5753424657</v>
@@ -952,7 +973,7 @@
         <v>30000000</v>
       </c>
       <c r="J20">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L20">
         <v>169249.3150684931</v>
@@ -969,7 +990,7 @@
         <v>30000000</v>
       </c>
       <c r="J21">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L21">
         <v>178652.0547945205</v>
@@ -986,7 +1007,7 @@
         <v>30000000</v>
       </c>
       <c r="J22">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L22">
         <v>188054.7945205479</v>
@@ -1003,7 +1024,7 @@
         <v>30000000</v>
       </c>
       <c r="J23">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L23">
         <v>197457.5342465753</v>
@@ -1020,7 +1041,7 @@
         <v>30000000</v>
       </c>
       <c r="J24">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L24">
         <v>206860.2739726026</v>
@@ -1037,7 +1058,7 @@
         <v>30000000</v>
       </c>
       <c r="J25">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L25">
         <v>216263.01369863</v>
@@ -1054,7 +1075,7 @@
         <v>30000000</v>
       </c>
       <c r="J26">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L26">
         <v>225665.7534246574</v>
@@ -1071,7 +1092,7 @@
         <v>30000000</v>
       </c>
       <c r="J27">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L27">
         <v>235068.4931506848</v>
@@ -1088,7 +1109,7 @@
         <v>30000000</v>
       </c>
       <c r="J28">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L28">
         <v>244471.2328767122</v>
@@ -1105,7 +1126,7 @@
         <v>30000000</v>
       </c>
       <c r="J29">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L29">
         <v>253873.9726027396</v>
@@ -1122,7 +1143,7 @@
         <v>30000000</v>
       </c>
       <c r="J30">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L30">
         <v>263276.712328767</v>
@@ -1139,7 +1160,7 @@
         <v>30000000</v>
       </c>
       <c r="J31">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L31">
         <v>272679.4520547944</v>
@@ -1156,7 +1177,7 @@
         <v>30000000</v>
       </c>
       <c r="J32">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L32">
         <v>282082.1917808218</v>
@@ -1173,7 +1194,7 @@
         <v>30000000</v>
       </c>
       <c r="J33">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L33">
         <v>291484.9315068492</v>
@@ -1190,7 +1211,7 @@
         <v>30000000</v>
       </c>
       <c r="J34">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L34">
         <v>300887.6712328767</v>
@@ -1207,7 +1228,7 @@
         <v>30000000</v>
       </c>
       <c r="J35">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L35">
         <v>310290.4109589041</v>
@@ -1224,7 +1245,7 @@
         <v>30000000</v>
       </c>
       <c r="J36">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L36">
         <v>319693.1506849315</v>
@@ -1241,7 +1262,7 @@
         <v>30000000</v>
       </c>
       <c r="J37">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L37">
         <v>329095.8904109589</v>
@@ -1258,7 +1279,7 @@
         <v>30000000</v>
       </c>
       <c r="J38">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L38">
         <v>338498.6301369863</v>
@@ -1275,7 +1296,7 @@
         <v>30000000</v>
       </c>
       <c r="J39">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L39">
         <v>347901.3698630137</v>
@@ -1292,7 +1313,7 @@
         <v>30000000</v>
       </c>
       <c r="J40">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L40">
         <v>357304.1095890412</v>
@@ -1309,7 +1330,7 @@
         <v>30000000</v>
       </c>
       <c r="J41">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L41">
         <v>366706.8493150686</v>
@@ -1326,7 +1347,7 @@
         <v>30000000</v>
       </c>
       <c r="J42">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L42">
         <v>376109.589041096</v>
@@ -1343,7 +1364,7 @@
         <v>30000000</v>
       </c>
       <c r="J43">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L43">
         <v>385512.3287671234</v>
@@ -1360,7 +1381,7 @@
         <v>30000000</v>
       </c>
       <c r="J44">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L44">
         <v>394915.0684931508</v>
@@ -1377,7 +1398,7 @@
         <v>30000000</v>
       </c>
       <c r="J45">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L45">
         <v>404317.8082191782</v>
@@ -1394,7 +1415,7 @@
         <v>30000000</v>
       </c>
       <c r="J46">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L46">
         <v>413720.5479452056</v>
@@ -1411,7 +1432,7 @@
         <v>30000000</v>
       </c>
       <c r="J47">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L47">
         <v>423123.2876712331</v>
@@ -1428,7 +1449,7 @@
         <v>30000000</v>
       </c>
       <c r="J48">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L48">
         <v>432526.0273972605</v>
@@ -1445,7 +1466,7 @@
         <v>30000000</v>
       </c>
       <c r="J49">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L49">
         <v>441928.7671232879</v>
@@ -1462,7 +1483,7 @@
         <v>30000000</v>
       </c>
       <c r="J50">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L50">
         <v>451331.5068493153</v>
@@ -1479,7 +1500,7 @@
         <v>30000000</v>
       </c>
       <c r="J51">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L51">
         <v>460734.2465753427</v>
@@ -1496,7 +1517,7 @@
         <v>30000000</v>
       </c>
       <c r="J52">
-        <v>9402.739726027396</v>
+        <v>30608.21917808219</v>
       </c>
       <c r="L52">
         <v>470136.9863013701</v>
@@ -1509,11 +1530,17 @@
       <c r="C53" t="s">
         <v>58</v>
       </c>
+      <c r="E53">
+        <v>12.9</v>
+      </c>
+      <c r="F53">
+        <v>100000000</v>
+      </c>
       <c r="H53">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J53">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L53">
         <v>479539.7260273976</v>
@@ -1527,10 +1554,10 @@
         <v>59</v>
       </c>
       <c r="H54">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J54">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L54">
         <v>488942.465753425</v>
@@ -1544,10 +1571,10 @@
         <v>60</v>
       </c>
       <c r="H55">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J55">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L55">
         <v>498345.2054794524</v>
@@ -1561,10 +1588,10 @@
         <v>61</v>
       </c>
       <c r="H56">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J56">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L56">
         <v>507747.9452054798</v>
@@ -1578,10 +1605,10 @@
         <v>62</v>
       </c>
       <c r="H57">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J57">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L57">
         <v>517150.6849315072</v>
@@ -1595,10 +1622,10 @@
         <v>63</v>
       </c>
       <c r="H58">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J58">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L58">
         <v>526553.4246575346</v>
@@ -1612,10 +1639,10 @@
         <v>64</v>
       </c>
       <c r="H59">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J59">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L59">
         <v>535956.1643835619</v>
@@ -1629,10 +1656,10 @@
         <v>65</v>
       </c>
       <c r="H60">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J60">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L60">
         <v>545358.9041095893</v>
@@ -1646,10 +1673,10 @@
         <v>66</v>
       </c>
       <c r="H61">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J61">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L61">
         <v>554761.6438356166</v>
@@ -1663,10 +1690,10 @@
         <v>67</v>
       </c>
       <c r="H62">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J62">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L62">
         <v>564164.383561644</v>
@@ -1680,10 +1707,10 @@
         <v>68</v>
       </c>
       <c r="H63">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J63">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L63">
         <v>573567.1232876714</v>
@@ -1697,10 +1724,10 @@
         <v>69</v>
       </c>
       <c r="H64">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J64">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L64">
         <v>582969.8630136987</v>
@@ -1714,10 +1741,10 @@
         <v>70</v>
       </c>
       <c r="H65">
-        <v>30000000</v>
+        <v>130000000</v>
       </c>
       <c r="J65">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L65">
         <v>592372.6027397261</v>
@@ -1730,11 +1757,17 @@
       <c r="C66" t="s">
         <v>71</v>
       </c>
+      <c r="E66">
+        <v>12.55</v>
+      </c>
+      <c r="F66">
+        <v>100000000</v>
+      </c>
       <c r="H66">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J66">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L66">
         <v>601775.3424657534</v>
@@ -1748,10 +1781,10 @@
         <v>72</v>
       </c>
       <c r="H67">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J67">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L67">
         <v>611178.0821917808</v>
@@ -1765,10 +1798,10 @@
         <v>73</v>
       </c>
       <c r="H68">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J68">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L68">
         <v>620580.8219178081</v>
@@ -1782,10 +1815,10 @@
         <v>74</v>
       </c>
       <c r="H69">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J69">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L69">
         <v>629983.5616438355</v>
@@ -1799,10 +1832,10 @@
         <v>75</v>
       </c>
       <c r="H70">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J70">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L70">
         <v>639386.3013698629</v>
@@ -1816,10 +1849,10 @@
         <v>76</v>
       </c>
       <c r="H71">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J71">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L71">
         <v>648789.0410958902</v>
@@ -1832,17 +1865,11 @@
       <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="E72">
-        <v>11.7</v>
-      </c>
-      <c r="F72">
-        <v>20000000</v>
-      </c>
       <c r="H72">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J72">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L72">
         <v>658191.7808219176</v>
@@ -1856,10 +1883,10 @@
         <v>78</v>
       </c>
       <c r="H73">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J73">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L73">
         <v>667594.5205479449</v>
@@ -1873,13 +1900,132 @@
         <v>79</v>
       </c>
       <c r="H74">
-        <v>30000000</v>
+        <v>230000000</v>
       </c>
       <c r="J74">
-        <v>9402.739726027396</v>
+        <v>80087.67123287672</v>
       </c>
       <c r="L74">
         <v>9402.739726027396</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>230000000</v>
+      </c>
+      <c r="J75">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L75">
+        <v>9402.739726027396</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>230000000</v>
+      </c>
+      <c r="J76">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L76">
+        <v>18805.47945205479</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>230000000</v>
+      </c>
+      <c r="J77">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L77">
+        <v>28208.21917808219</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>230000000</v>
+      </c>
+      <c r="J78">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L78">
+        <v>37610.95890410958</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>230000000</v>
+      </c>
+      <c r="J79">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L79">
+        <v>47013.69863013698</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>230000000</v>
+      </c>
+      <c r="J80">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L80">
+        <v>56416.43835616437</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>230000000</v>
+      </c>
+      <c r="J81">
+        <v>80087.67123287672</v>
+      </c>
+      <c r="L81">
+        <v>80087.67123287672</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2590,6 +2736,125 @@
         <v>16397.2602739726</v>
       </c>
       <c r="L40">
+        <v>16397.2602739726</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41">
+        <v>45000000</v>
+      </c>
+      <c r="J41">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L41">
+        <v>16397.2602739726</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42">
+        <v>45000000</v>
+      </c>
+      <c r="J42">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L42">
+        <v>32794.52054794521</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43">
+        <v>45000000</v>
+      </c>
+      <c r="J43">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L43">
+        <v>49191.78082191781</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44">
+        <v>45000000</v>
+      </c>
+      <c r="J44">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L44">
+        <v>65589.04109589041</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45">
+        <v>45000000</v>
+      </c>
+      <c r="J45">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L45">
+        <v>81986.30136986301</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46">
+        <v>45000000</v>
+      </c>
+      <c r="J46">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L46">
+        <v>98383.56164383561</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47">
+        <v>45000000</v>
+      </c>
+      <c r="J47">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="L47">
         <v>16397.2602739726</v>
       </c>
     </row>
@@ -2604,7 +2869,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L68"/>
+  <dimension ref="B1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3789,6 +4054,125 @@
         <v>9285.205479452054</v>
       </c>
     </row>
+    <row r="69" spans="2:12">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69">
+        <v>28600000</v>
+      </c>
+      <c r="J69">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L69">
+        <v>9285.205479452054</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70">
+        <v>28600000</v>
+      </c>
+      <c r="J70">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L70">
+        <v>18570.41095890411</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71">
+        <v>28600000</v>
+      </c>
+      <c r="J71">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L71">
+        <v>27855.61643835616</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72">
+        <v>28600000</v>
+      </c>
+      <c r="J72">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L72">
+        <v>37140.82191780821</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73">
+        <v>28600000</v>
+      </c>
+      <c r="J73">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L73">
+        <v>46426.02739726027</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74">
+        <v>28600000</v>
+      </c>
+      <c r="J74">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L74">
+        <v>55711.23287671232</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75">
+        <v>28600000</v>
+      </c>
+      <c r="J75">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="L75">
+        <v>9285.205479452054</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>

--- a/website/data/reports/bank_data.xlsx
+++ b/website/data/reports/bank_data.xlsx
@@ -10,13 +10,14 @@
     <sheet name="ASKARI" sheetId="1" r:id="rId1"/>
     <sheet name="DIBL" sheetId="2" r:id="rId2"/>
     <sheet name="HBL" sheetId="3" r:id="rId3"/>
+    <sheet name="MEEZAN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="90">
   <si>
     <t>Principal</t>
   </si>
@@ -277,6 +278,15 @@
   </si>
   <si>
     <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>11/02/2022</t>
+  </si>
+  <si>
+    <t>12/02/2022</t>
+  </si>
+  <si>
+    <t>13/02/2022</t>
   </si>
 </sst>
 </file>
@@ -619,26 +629,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L81"/>
+  <dimension ref="B1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:13">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12">
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -646,28 +655,28 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>1</v>
       </c>
@@ -675,855 +684,855 @@
         <v>8</v>
       </c>
       <c r="E3">
+        <v>30000000</v>
+      </c>
+      <c r="G3">
+        <v>30000000</v>
+      </c>
+      <c r="I3">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K3">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="M3">
         <v>11.44</v>
       </c>
-      <c r="F3">
-        <v>30000000</v>
-      </c>
-      <c r="H3">
-        <v>30000000</v>
-      </c>
-      <c r="J3">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L3">
-        <v>9402.739726027396</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>30000000</v>
-      </c>
-      <c r="J4">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L4">
+      <c r="G4">
+        <v>30000000</v>
+      </c>
+      <c r="I4">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K4">
         <v>18805.47945205479</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>30000000</v>
-      </c>
-      <c r="J5">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L5">
+      <c r="G5">
+        <v>30000000</v>
+      </c>
+      <c r="I5">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K5">
         <v>28208.21917808219</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>30000000</v>
-      </c>
-      <c r="J6">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L6">
+      <c r="G6">
+        <v>30000000</v>
+      </c>
+      <c r="I6">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K6">
         <v>37610.95890410958</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>30000000</v>
-      </c>
-      <c r="J7">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L7">
+      <c r="G7">
+        <v>30000000</v>
+      </c>
+      <c r="I7">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K7">
         <v>47013.69863013698</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>30000000</v>
-      </c>
-      <c r="J8">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L8">
+      <c r="G8">
+        <v>30000000</v>
+      </c>
+      <c r="I8">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K8">
         <v>56416.43835616437</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>30000000</v>
-      </c>
-      <c r="J9">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L9">
+      <c r="G9">
+        <v>30000000</v>
+      </c>
+      <c r="I9">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K9">
         <v>65819.17808219176</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>30000000</v>
-      </c>
-      <c r="J10">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L10">
+      <c r="G10">
+        <v>30000000</v>
+      </c>
+      <c r="I10">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K10">
         <v>75221.91780821916</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>30000000</v>
-      </c>
-      <c r="J11">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L11">
+      <c r="G11">
+        <v>30000000</v>
+      </c>
+      <c r="I11">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K11">
         <v>84624.65753424657</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="H12">
-        <v>30000000</v>
-      </c>
-      <c r="J12">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L12">
+      <c r="G12">
+        <v>30000000</v>
+      </c>
+      <c r="I12">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K12">
         <v>94027.39726027397</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="H13">
-        <v>30000000</v>
-      </c>
-      <c r="J13">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L13">
+      <c r="G13">
+        <v>30000000</v>
+      </c>
+      <c r="I13">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K13">
         <v>103430.1369863014</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="H14">
-        <v>30000000</v>
-      </c>
-      <c r="J14">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L14">
+      <c r="G14">
+        <v>30000000</v>
+      </c>
+      <c r="I14">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K14">
         <v>112832.8767123288</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="H15">
-        <v>30000000</v>
-      </c>
-      <c r="J15">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L15">
+      <c r="G15">
+        <v>30000000</v>
+      </c>
+      <c r="I15">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K15">
         <v>122235.6164383562</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="H16">
-        <v>30000000</v>
-      </c>
-      <c r="J16">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L16">
+      <c r="G16">
+        <v>30000000</v>
+      </c>
+      <c r="I16">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K16">
         <v>131638.3561643836</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="H17">
-        <v>30000000</v>
-      </c>
-      <c r="J17">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L17">
+      <c r="G17">
+        <v>30000000</v>
+      </c>
+      <c r="I17">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K17">
         <v>141041.0958904109</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="H18">
-        <v>30000000</v>
-      </c>
-      <c r="J18">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L18">
+      <c r="G18">
+        <v>30000000</v>
+      </c>
+      <c r="I18">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K18">
         <v>150443.8356164383</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="H19">
-        <v>30000000</v>
-      </c>
-      <c r="J19">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L19">
+      <c r="G19">
+        <v>30000000</v>
+      </c>
+      <c r="I19">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K19">
         <v>159846.5753424657</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="H20">
-        <v>30000000</v>
-      </c>
-      <c r="J20">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L20">
+      <c r="G20">
+        <v>30000000</v>
+      </c>
+      <c r="I20">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K20">
         <v>169249.3150684931</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="H21">
-        <v>30000000</v>
-      </c>
-      <c r="J21">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L21">
+      <c r="G21">
+        <v>30000000</v>
+      </c>
+      <c r="I21">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K21">
         <v>178652.0547945205</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="H22">
-        <v>30000000</v>
-      </c>
-      <c r="J22">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L22">
+      <c r="G22">
+        <v>30000000</v>
+      </c>
+      <c r="I22">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K22">
         <v>188054.7945205479</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="H23">
-        <v>30000000</v>
-      </c>
-      <c r="J23">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L23">
+      <c r="G23">
+        <v>30000000</v>
+      </c>
+      <c r="I23">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K23">
         <v>197457.5342465753</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="H24">
-        <v>30000000</v>
-      </c>
-      <c r="J24">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L24">
+      <c r="G24">
+        <v>30000000</v>
+      </c>
+      <c r="I24">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K24">
         <v>206860.2739726026</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="H25">
-        <v>30000000</v>
-      </c>
-      <c r="J25">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L25">
+      <c r="G25">
+        <v>30000000</v>
+      </c>
+      <c r="I25">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K25">
         <v>216263.01369863</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="H26">
-        <v>30000000</v>
-      </c>
-      <c r="J26">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L26">
+      <c r="G26">
+        <v>30000000</v>
+      </c>
+      <c r="I26">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K26">
         <v>225665.7534246574</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="H27">
-        <v>30000000</v>
-      </c>
-      <c r="J27">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L27">
+      <c r="G27">
+        <v>30000000</v>
+      </c>
+      <c r="I27">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K27">
         <v>235068.4931506848</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="H28">
-        <v>30000000</v>
-      </c>
-      <c r="J28">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L28">
+      <c r="G28">
+        <v>30000000</v>
+      </c>
+      <c r="I28">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K28">
         <v>244471.2328767122</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="H29">
-        <v>30000000</v>
-      </c>
-      <c r="J29">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L29">
+      <c r="G29">
+        <v>30000000</v>
+      </c>
+      <c r="I29">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K29">
         <v>253873.9726027396</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="H30">
-        <v>30000000</v>
-      </c>
-      <c r="J30">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L30">
+      <c r="G30">
+        <v>30000000</v>
+      </c>
+      <c r="I30">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K30">
         <v>263276.712328767</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="H31">
-        <v>30000000</v>
-      </c>
-      <c r="J31">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L31">
+      <c r="G31">
+        <v>30000000</v>
+      </c>
+      <c r="I31">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K31">
         <v>272679.4520547944</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="H32">
-        <v>30000000</v>
-      </c>
-      <c r="J32">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L32">
+      <c r="G32">
+        <v>30000000</v>
+      </c>
+      <c r="I32">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K32">
         <v>282082.1917808218</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="H33">
-        <v>30000000</v>
-      </c>
-      <c r="J33">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L33">
+      <c r="G33">
+        <v>30000000</v>
+      </c>
+      <c r="I33">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K33">
         <v>291484.9315068492</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:11">
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="H34">
-        <v>30000000</v>
-      </c>
-      <c r="J34">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L34">
+      <c r="G34">
+        <v>30000000</v>
+      </c>
+      <c r="I34">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K34">
         <v>300887.6712328767</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="H35">
-        <v>30000000</v>
-      </c>
-      <c r="J35">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L35">
+      <c r="G35">
+        <v>30000000</v>
+      </c>
+      <c r="I35">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K35">
         <v>310290.4109589041</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="H36">
-        <v>30000000</v>
-      </c>
-      <c r="J36">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L36">
+      <c r="G36">
+        <v>30000000</v>
+      </c>
+      <c r="I36">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K36">
         <v>319693.1506849315</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:11">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="H37">
-        <v>30000000</v>
-      </c>
-      <c r="J37">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L37">
+      <c r="G37">
+        <v>30000000</v>
+      </c>
+      <c r="I37">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K37">
         <v>329095.8904109589</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:11">
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
-      <c r="H38">
-        <v>30000000</v>
-      </c>
-      <c r="J38">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L38">
+      <c r="G38">
+        <v>30000000</v>
+      </c>
+      <c r="I38">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K38">
         <v>338498.6301369863</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:11">
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="H39">
-        <v>30000000</v>
-      </c>
-      <c r="J39">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L39">
+      <c r="G39">
+        <v>30000000</v>
+      </c>
+      <c r="I39">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K39">
         <v>347901.3698630137</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="H40">
-        <v>30000000</v>
-      </c>
-      <c r="J40">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L40">
+      <c r="G40">
+        <v>30000000</v>
+      </c>
+      <c r="I40">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K40">
         <v>357304.1095890412</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:11">
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="H41">
-        <v>30000000</v>
-      </c>
-      <c r="J41">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L41">
+      <c r="G41">
+        <v>30000000</v>
+      </c>
+      <c r="I41">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K41">
         <v>366706.8493150686</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="H42">
-        <v>30000000</v>
-      </c>
-      <c r="J42">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L42">
+      <c r="G42">
+        <v>30000000</v>
+      </c>
+      <c r="I42">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K42">
         <v>376109.589041096</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="H43">
-        <v>30000000</v>
-      </c>
-      <c r="J43">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L43">
+      <c r="G43">
+        <v>30000000</v>
+      </c>
+      <c r="I43">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K43">
         <v>385512.3287671234</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="H44">
-        <v>30000000</v>
-      </c>
-      <c r="J44">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L44">
+      <c r="G44">
+        <v>30000000</v>
+      </c>
+      <c r="I44">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K44">
         <v>394915.0684931508</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:11">
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="H45">
-        <v>30000000</v>
-      </c>
-      <c r="J45">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L45">
+      <c r="G45">
+        <v>30000000</v>
+      </c>
+      <c r="I45">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K45">
         <v>404317.8082191782</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:11">
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
-      <c r="H46">
-        <v>30000000</v>
-      </c>
-      <c r="J46">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L46">
+      <c r="G46">
+        <v>30000000</v>
+      </c>
+      <c r="I46">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K46">
         <v>413720.5479452056</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:11">
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="H47">
-        <v>30000000</v>
-      </c>
-      <c r="J47">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L47">
+      <c r="G47">
+        <v>30000000</v>
+      </c>
+      <c r="I47">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K47">
         <v>423123.2876712331</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:11">
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="H48">
-        <v>30000000</v>
-      </c>
-      <c r="J48">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L48">
+      <c r="G48">
+        <v>30000000</v>
+      </c>
+      <c r="I48">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K48">
         <v>432526.0273972605</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13">
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="H49">
-        <v>30000000</v>
-      </c>
-      <c r="J49">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L49">
+      <c r="G49">
+        <v>30000000</v>
+      </c>
+      <c r="I49">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K49">
         <v>441928.7671232879</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:13">
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
       </c>
-      <c r="H50">
-        <v>30000000</v>
-      </c>
-      <c r="J50">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L50">
+      <c r="G50">
+        <v>30000000</v>
+      </c>
+      <c r="I50">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K50">
         <v>451331.5068493153</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:13">
       <c r="B51">
         <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
       </c>
-      <c r="H51">
-        <v>30000000</v>
-      </c>
-      <c r="J51">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L51">
+      <c r="G51">
+        <v>30000000</v>
+      </c>
+      <c r="I51">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K51">
         <v>460734.2465753427</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:13">
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
-      <c r="H52">
-        <v>30000000</v>
-      </c>
-      <c r="J52">
-        <v>30608.21917808219</v>
-      </c>
-      <c r="L52">
+      <c r="G52">
+        <v>30000000</v>
+      </c>
+      <c r="I52">
+        <v>9402.739726027396</v>
+      </c>
+      <c r="K52">
         <v>470136.9863013701</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:13">
       <c r="B53">
         <v>51</v>
       </c>
@@ -1531,226 +1540,226 @@
         <v>58</v>
       </c>
       <c r="E53">
-        <v>12.9</v>
-      </c>
-      <c r="F53">
         <v>100000000</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <v>130000000</v>
       </c>
-      <c r="J53">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L53">
-        <v>479539.7260273976</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="I53">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K53">
+        <v>510772.6027397263</v>
+      </c>
+      <c r="M53">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
       </c>
-      <c r="H54">
+      <c r="G54">
         <v>130000000</v>
       </c>
-      <c r="J54">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L54">
-        <v>488942.465753425</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
+      <c r="I54">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K54">
+        <v>551408.2191780824</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
       </c>
-      <c r="H55">
+      <c r="G55">
         <v>130000000</v>
       </c>
-      <c r="J55">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L55">
-        <v>498345.2054794524</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="I55">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K55">
+        <v>592043.8356164385</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="H56">
+      <c r="G56">
         <v>130000000</v>
       </c>
-      <c r="J56">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L56">
-        <v>507747.9452054798</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="I56">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K56">
+        <v>632679.4520547946</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57">
         <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
-      <c r="H57">
+      <c r="G57">
         <v>130000000</v>
       </c>
-      <c r="J57">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L57">
-        <v>517150.6849315072</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
+      <c r="I57">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K57">
+        <v>673315.0684931508</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58">
         <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
       </c>
-      <c r="H58">
+      <c r="G58">
         <v>130000000</v>
       </c>
-      <c r="J58">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L58">
-        <v>526553.4246575346</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
+      <c r="I58">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K58">
+        <v>713950.6849315069</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59">
         <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
       </c>
-      <c r="H59">
+      <c r="G59">
         <v>130000000</v>
       </c>
-      <c r="J59">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L59">
-        <v>535956.1643835619</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
+      <c r="I59">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K59">
+        <v>754586.301369863</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60">
         <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
-      <c r="H60">
+      <c r="G60">
         <v>130000000</v>
       </c>
-      <c r="J60">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L60">
-        <v>545358.9041095893</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
+      <c r="I60">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K60">
+        <v>795221.9178082191</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61">
         <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
       </c>
-      <c r="H61">
+      <c r="G61">
         <v>130000000</v>
       </c>
-      <c r="J61">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L61">
-        <v>554761.6438356166</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
+      <c r="I61">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K61">
+        <v>835857.5342465752</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
       </c>
-      <c r="H62">
+      <c r="G62">
         <v>130000000</v>
       </c>
-      <c r="J62">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L62">
-        <v>564164.383561644</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
+      <c r="I62">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K62">
+        <v>876493.1506849313</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63">
         <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
       </c>
-      <c r="H63">
+      <c r="G63">
         <v>130000000</v>
       </c>
-      <c r="J63">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L63">
-        <v>573567.1232876714</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12">
+      <c r="I63">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K63">
+        <v>917128.7671232874</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64">
         <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
       </c>
-      <c r="H64">
+      <c r="G64">
         <v>130000000</v>
       </c>
-      <c r="J64">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L64">
-        <v>582969.8630136987</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
+      <c r="I64">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K64">
+        <v>957764.3835616435</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65">
         <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="H65">
+      <c r="G65">
         <v>130000000</v>
       </c>
-      <c r="J65">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L65">
-        <v>592372.6027397261</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
+      <c r="I65">
+        <v>40635.61643835616</v>
+      </c>
+      <c r="K65">
+        <v>998399.9999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66">
         <v>64</v>
       </c>
@@ -1758,280 +1767,331 @@
         <v>71</v>
       </c>
       <c r="E66">
-        <v>12.55</v>
-      </c>
-      <c r="F66">
         <v>100000000</v>
       </c>
-      <c r="H66">
+      <c r="G66">
         <v>230000000</v>
       </c>
-      <c r="J66">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L66">
-        <v>601775.3424657534</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12">
+      <c r="I66">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K66">
+        <v>1069309.589041095</v>
+      </c>
+      <c r="M66">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67">
         <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
       </c>
-      <c r="H67">
+      <c r="G67">
         <v>230000000</v>
       </c>
-      <c r="J67">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L67">
-        <v>611178.0821917808</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12">
+      <c r="I67">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K67">
+        <v>1140219.178082191</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68">
         <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
       </c>
-      <c r="H68">
+      <c r="G68">
         <v>230000000</v>
       </c>
-      <c r="J68">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L68">
-        <v>620580.8219178081</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
+      <c r="I68">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K68">
+        <v>1211128.767123287</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69">
         <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="H69">
+      <c r="G69">
         <v>230000000</v>
       </c>
-      <c r="J69">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L69">
-        <v>629983.5616438355</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
+      <c r="I69">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K69">
+        <v>1282038.356164383</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70">
         <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>75</v>
       </c>
-      <c r="H70">
+      <c r="G70">
         <v>230000000</v>
       </c>
-      <c r="J70">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L70">
-        <v>639386.3013698629</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
+      <c r="I70">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K70">
+        <v>1352947.945205479</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71">
         <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>76</v>
       </c>
-      <c r="H71">
+      <c r="G71">
         <v>230000000</v>
       </c>
-      <c r="J71">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L71">
-        <v>648789.0410958902</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
+      <c r="I71">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K71">
+        <v>1423857.534246575</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72">
         <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>77</v>
       </c>
-      <c r="H72">
+      <c r="G72">
         <v>230000000</v>
       </c>
-      <c r="J72">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L72">
-        <v>658191.7808219176</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="I72">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K72">
+        <v>1494767.123287671</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73">
         <v>71</v>
       </c>
       <c r="C73" t="s">
         <v>78</v>
       </c>
-      <c r="H73">
+      <c r="G73">
         <v>230000000</v>
       </c>
-      <c r="J73">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L73">
-        <v>667594.5205479449</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
+      <c r="I73">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K73">
+        <v>1565676.712328767</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74">
         <v>72</v>
       </c>
       <c r="C74" t="s">
         <v>79</v>
       </c>
-      <c r="H74">
+      <c r="G74">
         <v>230000000</v>
       </c>
-      <c r="J74">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L74">
-        <v>9402.739726027396</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
+      <c r="I74">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K74">
+        <v>1636586.301369863</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75">
         <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="H75">
+      <c r="G75">
         <v>230000000</v>
       </c>
-      <c r="J75">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L75">
-        <v>9402.739726027396</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
+      <c r="I75">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K75">
+        <v>1707495.890410959</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
       <c r="B76">
         <v>74</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
       </c>
-      <c r="H76">
+      <c r="G76">
         <v>230000000</v>
       </c>
-      <c r="J76">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L76">
-        <v>18805.47945205479</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
+      <c r="I76">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K76">
+        <v>1778405.479452055</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
       <c r="B77">
         <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>82</v>
       </c>
-      <c r="H77">
+      <c r="G77">
         <v>230000000</v>
       </c>
-      <c r="J77">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L77">
-        <v>28208.21917808219</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
+      <c r="I77">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K77">
+        <v>1849315.068493151</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78">
         <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
       </c>
-      <c r="H78">
+      <c r="G78">
         <v>230000000</v>
       </c>
-      <c r="J78">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L78">
-        <v>37610.95890410958</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
+      <c r="I78">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K78">
+        <v>1920224.657534247</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
       <c r="B79">
         <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
-      <c r="H79">
+      <c r="G79">
         <v>230000000</v>
       </c>
-      <c r="J79">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L79">
-        <v>47013.69863013698</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
+      <c r="I79">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K79">
+        <v>1991134.246575342</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80">
         <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
-      <c r="H80">
+      <c r="G80">
         <v>230000000</v>
       </c>
-      <c r="J80">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L80">
-        <v>56416.43835616437</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12">
+      <c r="I80">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K80">
+        <v>2062043.835616438</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
       <c r="B81">
         <v>79</v>
       </c>
       <c r="C81" t="s">
         <v>86</v>
       </c>
-      <c r="H81">
+      <c r="G81">
         <v>230000000</v>
       </c>
-      <c r="J81">
-        <v>80087.67123287672</v>
-      </c>
-      <c r="L81">
-        <v>80087.67123287672</v>
+      <c r="I81">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K81">
+        <v>2132953.424657534</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82">
+        <v>230000000</v>
+      </c>
+      <c r="I82">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K82">
+        <v>2203863.01369863</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83">
+        <v>230000000</v>
+      </c>
+      <c r="I83">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K83">
+        <v>2274772.602739726</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84">
+        <v>230000000</v>
+      </c>
+      <c r="I84">
+        <v>70909.5890410959</v>
+      </c>
+      <c r="K84">
+        <v>2345682.191780821</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2039,26 +2099,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L47"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:13">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12">
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2066,28 +2125,28 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2095,773 +2154,824 @@
         <v>42</v>
       </c>
       <c r="E3">
+        <v>45000000</v>
+      </c>
+      <c r="G3">
+        <v>45000000</v>
+      </c>
+      <c r="I3">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K3">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="M3">
         <v>13.3</v>
       </c>
-      <c r="F3">
-        <v>45000000</v>
-      </c>
-      <c r="H3">
-        <v>45000000</v>
-      </c>
-      <c r="J3">
-        <v>16397.2602739726</v>
-      </c>
-      <c r="L3">
-        <v>16397.2602739726</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>45000000</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>16397.2602739726</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>32794.52054794521</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>45000000</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>16397.2602739726</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>49191.78082191781</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>45000000</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>16397.2602739726</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>65589.04109589041</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>45000000</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>16397.2602739726</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>81986.30136986301</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>45000000</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>16397.2602739726</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>98383.56164383561</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>45000000</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>16397.2602739726</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>114780.8219178082</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>45000000</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <v>16397.2602739726</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>131178.0821917808</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>45000000</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>16397.2602739726</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>147575.3424657534</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>45000000</v>
       </c>
-      <c r="J12">
+      <c r="I12">
         <v>16397.2602739726</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>163972.602739726</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <v>45000000</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>16397.2602739726</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>180369.8630136987</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>45000000</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>16397.2602739726</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <v>196767.1232876713</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <v>45000000</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <v>16397.2602739726</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>213164.3835616439</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>45000000</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>16397.2602739726</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>229561.6438356165</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>45000000</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <v>16397.2602739726</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>245958.9041095891</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>45000000</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <v>16397.2602739726</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>262356.1643835617</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="H19">
+      <c r="G19">
         <v>45000000</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>16397.2602739726</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>278753.4246575343</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="H20">
+      <c r="G20">
         <v>45000000</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>16397.2602739726</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>295150.6849315069</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <v>45000000</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>16397.2602739726</v>
       </c>
-      <c r="L21">
+      <c r="K21">
         <v>311547.9452054795</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="H22">
+      <c r="G22">
         <v>45000000</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>16397.2602739726</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>327945.205479452</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="H23">
+      <c r="G23">
         <v>45000000</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>16397.2602739726</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>344342.4657534246</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="H24">
+      <c r="G24">
         <v>45000000</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>16397.2602739726</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>360739.7260273972</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="H25">
+      <c r="G25">
         <v>45000000</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>16397.2602739726</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>377136.9863013698</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>45000000</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <v>16397.2602739726</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>393534.2465753424</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <v>45000000</v>
       </c>
-      <c r="J27">
+      <c r="I27">
         <v>16397.2602739726</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>409931.506849315</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>45000000</v>
       </c>
-      <c r="J28">
+      <c r="I28">
         <v>16397.2602739726</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>426328.7671232875</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="H29">
+      <c r="G29">
         <v>45000000</v>
       </c>
-      <c r="J29">
+      <c r="I29">
         <v>16397.2602739726</v>
       </c>
-      <c r="L29">
+      <c r="K29">
         <v>442726.0273972601</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="H30">
+      <c r="G30">
         <v>45000000</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <v>16397.2602739726</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>459123.2876712327</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="H31">
+      <c r="G31">
         <v>45000000</v>
       </c>
-      <c r="J31">
+      <c r="I31">
         <v>16397.2602739726</v>
       </c>
-      <c r="L31">
+      <c r="K31">
         <v>475520.5479452053</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="H32">
+      <c r="G32">
         <v>45000000</v>
       </c>
-      <c r="J32">
+      <c r="I32">
         <v>16397.2602739726</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <v>491917.8082191779</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="H33">
+      <c r="G33">
         <v>45000000</v>
       </c>
-      <c r="J33">
+      <c r="I33">
         <v>16397.2602739726</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <v>508315.0684931505</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:11">
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="H34">
+      <c r="G34">
         <v>45000000</v>
       </c>
-      <c r="J34">
+      <c r="I34">
         <v>16397.2602739726</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>524712.3287671231</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="H35">
+      <c r="G35">
         <v>45000000</v>
       </c>
-      <c r="J35">
+      <c r="I35">
         <v>16397.2602739726</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <v>541109.5890410957</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <v>45000000</v>
       </c>
-      <c r="J36">
+      <c r="I36">
         <v>16397.2602739726</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>557506.8493150683</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:11">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="H37">
+      <c r="G37">
         <v>45000000</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <v>16397.2602739726</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <v>573904.109589041</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:11">
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="H38">
+      <c r="G38">
         <v>45000000</v>
       </c>
-      <c r="J38">
+      <c r="I38">
         <v>16397.2602739726</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>590301.3698630136</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:11">
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="H39">
+      <c r="G39">
         <v>45000000</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <v>16397.2602739726</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <v>606698.6301369863</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="H40">
+      <c r="G40">
         <v>45000000</v>
       </c>
-      <c r="J40">
+      <c r="I40">
         <v>16397.2602739726</v>
       </c>
-      <c r="L40">
-        <v>16397.2602739726</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="K40">
+        <v>623095.8904109589</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="H41">
+      <c r="G41">
         <v>45000000</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <v>16397.2602739726</v>
       </c>
-      <c r="L41">
-        <v>16397.2602739726</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="K41">
+        <v>639493.1506849315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="H42">
+      <c r="G42">
         <v>45000000</v>
       </c>
-      <c r="J42">
+      <c r="I42">
         <v>16397.2602739726</v>
       </c>
-      <c r="L42">
-        <v>32794.52054794521</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="K42">
+        <v>655890.4109589042</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="H43">
+      <c r="G43">
         <v>45000000</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <v>16397.2602739726</v>
       </c>
-      <c r="L43">
-        <v>49191.78082191781</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="K43">
+        <v>672287.6712328768</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="H44">
+      <c r="G44">
         <v>45000000</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <v>16397.2602739726</v>
       </c>
-      <c r="L44">
-        <v>65589.04109589041</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12">
+      <c r="K44">
+        <v>688684.9315068495</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
       </c>
-      <c r="H45">
+      <c r="G45">
         <v>45000000</v>
       </c>
-      <c r="J45">
+      <c r="I45">
         <v>16397.2602739726</v>
       </c>
-      <c r="L45">
-        <v>81986.30136986301</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12">
+      <c r="K45">
+        <v>705082.1917808221</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <v>45000000</v>
       </c>
-      <c r="J46">
+      <c r="I46">
         <v>16397.2602739726</v>
       </c>
-      <c r="L46">
-        <v>98383.56164383561</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="K46">
+        <v>721479.4520547948</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="H47">
+      <c r="G47">
         <v>45000000</v>
       </c>
-      <c r="J47">
+      <c r="I47">
         <v>16397.2602739726</v>
       </c>
-      <c r="L47">
+      <c r="K47">
+        <v>737876.7123287674</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48">
+        <v>45000000</v>
+      </c>
+      <c r="I48">
         <v>16397.2602739726</v>
+      </c>
+      <c r="K48">
+        <v>754273.97260274</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49">
+        <v>45000000</v>
+      </c>
+      <c r="I49">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K49">
+        <v>770671.2328767127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50">
+        <v>45000000</v>
+      </c>
+      <c r="I50">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K50">
+        <v>787068.4931506853</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2869,26 +2979,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L75"/>
+  <dimension ref="B1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:13">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:12">
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2896,28 +3005,28 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2925,1258 +3034,1958 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>10.76</v>
-      </c>
-      <c r="F3">
-        <v>28600000</v>
-      </c>
-      <c r="H3">
-        <v>28600000</v>
-      </c>
-      <c r="J3">
+        <v>28600000</v>
+      </c>
+      <c r="G3">
+        <v>28600000</v>
+      </c>
+      <c r="I3">
         <v>8431.123287671233</v>
       </c>
-      <c r="L3">
+      <c r="K3">
         <v>8431.123287671233</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>10.77</v>
-      </c>
-      <c r="H4">
-        <v>28600000</v>
-      </c>
-      <c r="J4">
+      <c r="G4">
+        <v>28600000</v>
+      </c>
+      <c r="I4">
         <v>8438.958904109588</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <v>16870.08219178082</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
-        <v>28600000</v>
-      </c>
-      <c r="J5">
+      <c r="G5">
+        <v>28600000</v>
+      </c>
+      <c r="I5">
         <v>8438.958904109588</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <v>25309.04109589041</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="H6">
-        <v>28600000</v>
-      </c>
-      <c r="J6">
+      <c r="G6">
+        <v>28600000</v>
+      </c>
+      <c r="I6">
         <v>8438.958904109588</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>33748</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="H7">
-        <v>28600000</v>
-      </c>
-      <c r="J7">
+      <c r="G7">
+        <v>28600000</v>
+      </c>
+      <c r="I7">
         <v>8438.958904109588</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>42186.95890410959</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="H8">
-        <v>28600000</v>
-      </c>
-      <c r="J8">
+      <c r="G8">
+        <v>28600000</v>
+      </c>
+      <c r="I8">
         <v>8438.958904109588</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <v>50625.91780821918</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="H9">
-        <v>28600000</v>
-      </c>
-      <c r="J9">
+      <c r="G9">
+        <v>28600000</v>
+      </c>
+      <c r="I9">
         <v>8438.958904109588</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <v>59064.87671232877</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="H10">
-        <v>28600000</v>
-      </c>
-      <c r="J10">
+      <c r="G10">
+        <v>28600000</v>
+      </c>
+      <c r="I10">
         <v>8438.958904109588</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>67503.83561643836</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="H11">
-        <v>28600000</v>
-      </c>
-      <c r="J11">
+      <c r="G11">
+        <v>28600000</v>
+      </c>
+      <c r="I11">
         <v>8438.958904109588</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>75942.79452054795</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="H12">
-        <v>28600000</v>
-      </c>
-      <c r="J12">
+      <c r="G12">
+        <v>28600000</v>
+      </c>
+      <c r="I12">
         <v>8438.958904109588</v>
       </c>
-      <c r="L12">
+      <c r="K12">
         <v>84381.75342465754</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="H13">
-        <v>28600000</v>
-      </c>
-      <c r="J13">
+      <c r="G13">
+        <v>28600000</v>
+      </c>
+      <c r="I13">
         <v>8438.958904109588</v>
       </c>
-      <c r="L13">
+      <c r="K13">
         <v>92820.71232876713</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="H14">
-        <v>28600000</v>
-      </c>
-      <c r="J14">
+      <c r="G14">
+        <v>28600000</v>
+      </c>
+      <c r="I14">
         <v>8438.958904109588</v>
       </c>
-      <c r="L14">
+      <c r="K14">
         <v>101259.6712328767</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="H15">
-        <v>28600000</v>
-      </c>
-      <c r="J15">
+      <c r="G15">
+        <v>28600000</v>
+      </c>
+      <c r="I15">
         <v>8438.958904109588</v>
       </c>
-      <c r="L15">
+      <c r="K15">
         <v>109698.6301369863</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="H16">
-        <v>28600000</v>
-      </c>
-      <c r="J16">
+      <c r="G16">
+        <v>28600000</v>
+      </c>
+      <c r="I16">
         <v>8438.958904109588</v>
       </c>
-      <c r="L16">
+      <c r="K16">
         <v>118137.5890410959</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="H17">
-        <v>28600000</v>
-      </c>
-      <c r="J17">
+      <c r="G17">
+        <v>28600000</v>
+      </c>
+      <c r="I17">
         <v>8438.958904109588</v>
       </c>
-      <c r="L17">
+      <c r="K17">
         <v>126576.5479452055</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="H18">
-        <v>28600000</v>
-      </c>
-      <c r="J18">
+      <c r="G18">
+        <v>28600000</v>
+      </c>
+      <c r="I18">
         <v>8438.958904109588</v>
       </c>
-      <c r="L18">
+      <c r="K18">
         <v>135015.5068493151</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="H19">
-        <v>28600000</v>
-      </c>
-      <c r="J19">
+      <c r="G19">
+        <v>28600000</v>
+      </c>
+      <c r="I19">
         <v>8438.958904109588</v>
       </c>
-      <c r="L19">
+      <c r="K19">
         <v>143454.4657534247</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="H20">
-        <v>28600000</v>
-      </c>
-      <c r="J20">
+      <c r="G20">
+        <v>28600000</v>
+      </c>
+      <c r="I20">
         <v>8438.958904109588</v>
       </c>
-      <c r="L20">
+      <c r="K20">
         <v>151893.4246575342</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="H21">
-        <v>28600000</v>
-      </c>
-      <c r="J21">
+      <c r="G21">
+        <v>28600000</v>
+      </c>
+      <c r="I21">
         <v>8438.958904109588</v>
       </c>
-      <c r="L21">
+      <c r="K21">
         <v>160332.3835616438</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="H22">
-        <v>28600000</v>
-      </c>
-      <c r="J22">
+      <c r="G22">
+        <v>28600000</v>
+      </c>
+      <c r="I22">
         <v>8438.958904109588</v>
       </c>
-      <c r="L22">
+      <c r="K22">
         <v>168771.3424657534</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="H23">
-        <v>28600000</v>
-      </c>
-      <c r="J23">
+      <c r="G23">
+        <v>28600000</v>
+      </c>
+      <c r="I23">
         <v>8438.958904109588</v>
       </c>
-      <c r="L23">
+      <c r="K23">
         <v>177210.301369863</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="H24">
-        <v>28600000</v>
-      </c>
-      <c r="J24">
+      <c r="G24">
+        <v>28600000</v>
+      </c>
+      <c r="I24">
         <v>8438.958904109588</v>
       </c>
-      <c r="L24">
+      <c r="K24">
         <v>185649.2602739725</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="H25">
-        <v>28600000</v>
-      </c>
-      <c r="J25">
+      <c r="G25">
+        <v>28600000</v>
+      </c>
+      <c r="I25">
         <v>8438.958904109588</v>
       </c>
-      <c r="L25">
+      <c r="K25">
         <v>194088.2191780821</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="H26">
-        <v>28600000</v>
-      </c>
-      <c r="J26">
+      <c r="G26">
+        <v>28600000</v>
+      </c>
+      <c r="I26">
         <v>8438.958904109588</v>
       </c>
-      <c r="L26">
+      <c r="K26">
         <v>202527.1780821917</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="H27">
-        <v>28600000</v>
-      </c>
-      <c r="J27">
+      <c r="G27">
+        <v>28600000</v>
+      </c>
+      <c r="I27">
         <v>8438.958904109588</v>
       </c>
-      <c r="L27">
+      <c r="K27">
         <v>210966.1369863013</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="H28">
-        <v>28600000</v>
-      </c>
-      <c r="J28">
+      <c r="G28">
+        <v>28600000</v>
+      </c>
+      <c r="I28">
         <v>8438.958904109588</v>
       </c>
-      <c r="L28">
+      <c r="K28">
         <v>219405.0958904108</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="H29">
-        <v>28600000</v>
-      </c>
-      <c r="J29">
+      <c r="G29">
+        <v>28600000</v>
+      </c>
+      <c r="I29">
         <v>8438.958904109588</v>
       </c>
-      <c r="L29">
+      <c r="K29">
         <v>227844.0547945204</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="H30">
-        <v>28600000</v>
-      </c>
-      <c r="J30">
+      <c r="G30">
+        <v>28600000</v>
+      </c>
+      <c r="I30">
         <v>8438.958904109588</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <v>236283.01369863</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="H31">
-        <v>28600000</v>
-      </c>
-      <c r="J31">
+      <c r="G31">
+        <v>28600000</v>
+      </c>
+      <c r="I31">
         <v>8438.958904109588</v>
       </c>
-      <c r="L31">
+      <c r="K31">
         <v>244721.9726027396</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="H32">
-        <v>28600000</v>
-      </c>
-      <c r="J32">
+      <c r="G32">
+        <v>28600000</v>
+      </c>
+      <c r="I32">
         <v>8438.958904109588</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <v>253160.9315068491</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="H33">
-        <v>28600000</v>
-      </c>
-      <c r="J33">
+      <c r="G33">
+        <v>28600000</v>
+      </c>
+      <c r="I33">
         <v>8438.958904109588</v>
       </c>
-      <c r="L33">
+      <c r="K33">
         <v>261599.8904109587</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:11">
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="H34">
-        <v>28600000</v>
-      </c>
-      <c r="J34">
+      <c r="G34">
+        <v>28600000</v>
+      </c>
+      <c r="I34">
         <v>8438.958904109588</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>270038.8493150683</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="E35">
-        <v>11.89</v>
-      </c>
-      <c r="H35">
-        <v>28600000</v>
-      </c>
-      <c r="J35">
+      <c r="G35">
+        <v>28600000</v>
+      </c>
+      <c r="I35">
         <v>9316.547945205481</v>
       </c>
-      <c r="L35">
+      <c r="K35">
         <v>279355.3972602737</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="H36">
-        <v>28600000</v>
-      </c>
-      <c r="J36">
+      <c r="G36">
+        <v>28600000</v>
+      </c>
+      <c r="I36">
         <v>9316.547945205481</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <v>288671.9452054792</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:11">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
       </c>
-      <c r="H37">
-        <v>28600000</v>
-      </c>
-      <c r="J37">
+      <c r="G37">
+        <v>28600000</v>
+      </c>
+      <c r="I37">
         <v>9316.547945205481</v>
       </c>
-      <c r="L37">
+      <c r="K37">
         <v>297988.4931506847</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:11">
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="H38">
-        <v>28600000</v>
-      </c>
-      <c r="J38">
+      <c r="G38">
+        <v>28600000</v>
+      </c>
+      <c r="I38">
         <v>9316.547945205481</v>
       </c>
-      <c r="L38">
+      <c r="K38">
         <v>307305.0410958902</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:11">
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
       </c>
-      <c r="H39">
-        <v>28600000</v>
-      </c>
-      <c r="J39">
+      <c r="G39">
+        <v>28600000</v>
+      </c>
+      <c r="I39">
         <v>9316.547945205481</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <v>316621.5890410956</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="H40">
-        <v>28600000</v>
-      </c>
-      <c r="J40">
+      <c r="G40">
+        <v>28600000</v>
+      </c>
+      <c r="I40">
         <v>9316.547945205481</v>
       </c>
-      <c r="L40">
+      <c r="K40">
         <v>325938.1369863011</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:11">
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="H41">
-        <v>28600000</v>
-      </c>
-      <c r="J41">
+      <c r="G41">
+        <v>28600000</v>
+      </c>
+      <c r="I41">
         <v>9316.547945205481</v>
       </c>
-      <c r="L41">
+      <c r="K41">
         <v>335254.6849315066</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="H42">
-        <v>28600000</v>
-      </c>
-      <c r="J42">
+      <c r="G42">
+        <v>28600000</v>
+      </c>
+      <c r="I42">
         <v>9316.547945205481</v>
       </c>
-      <c r="L42">
+      <c r="K42">
         <v>344571.232876712</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>54</v>
       </c>
-      <c r="H43">
-        <v>28600000</v>
-      </c>
-      <c r="J43">
+      <c r="G43">
+        <v>28600000</v>
+      </c>
+      <c r="I43">
         <v>9316.547945205481</v>
       </c>
-      <c r="L43">
+      <c r="K43">
         <v>353887.7808219175</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="H44">
-        <v>28600000</v>
-      </c>
-      <c r="J44">
+      <c r="G44">
+        <v>28600000</v>
+      </c>
+      <c r="I44">
         <v>9316.547945205481</v>
       </c>
-      <c r="L44">
+      <c r="K44">
         <v>363204.328767123</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:11">
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="H45">
-        <v>28600000</v>
-      </c>
-      <c r="J45">
+      <c r="G45">
+        <v>28600000</v>
+      </c>
+      <c r="I45">
         <v>9316.547945205481</v>
       </c>
-      <c r="L45">
+      <c r="K45">
         <v>372520.8767123285</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:11">
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="H46">
-        <v>28600000</v>
-      </c>
-      <c r="J46">
+      <c r="G46">
+        <v>28600000</v>
+      </c>
+      <c r="I46">
         <v>9316.547945205481</v>
       </c>
-      <c r="L46">
+      <c r="K46">
         <v>381837.4246575339</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:11">
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
-      <c r="H47">
-        <v>28600000</v>
-      </c>
-      <c r="J47">
+      <c r="G47">
+        <v>28600000</v>
+      </c>
+      <c r="I47">
         <v>9316.547945205481</v>
       </c>
-      <c r="L47">
+      <c r="K47">
         <v>391153.9726027394</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:11">
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="H48">
-        <v>28600000</v>
-      </c>
-      <c r="J48">
+      <c r="G48">
+        <v>28600000</v>
+      </c>
+      <c r="I48">
         <v>9316.547945205481</v>
       </c>
-      <c r="L48">
+      <c r="K48">
         <v>400470.5205479449</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:11">
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="H49">
-        <v>28600000</v>
-      </c>
-      <c r="J49">
+      <c r="G49">
+        <v>28600000</v>
+      </c>
+      <c r="I49">
         <v>9316.547945205481</v>
       </c>
-      <c r="L49">
+      <c r="K49">
         <v>409787.0684931503</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="H50">
-        <v>28600000</v>
-      </c>
-      <c r="J50">
+      <c r="G50">
+        <v>28600000</v>
+      </c>
+      <c r="I50">
         <v>9316.547945205481</v>
       </c>
-      <c r="L50">
+      <c r="K50">
         <v>419103.6164383558</v>
       </c>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>62</v>
       </c>
-      <c r="H51">
-        <v>28600000</v>
-      </c>
-      <c r="J51">
+      <c r="G51">
+        <v>28600000</v>
+      </c>
+      <c r="I51">
         <v>9316.547945205481</v>
       </c>
-      <c r="L51">
+      <c r="K51">
         <v>428420.1643835613</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:11">
       <c r="B52">
         <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
-      <c r="H52">
-        <v>28600000</v>
-      </c>
-      <c r="J52">
+      <c r="G52">
+        <v>28600000</v>
+      </c>
+      <c r="I52">
         <v>9316.547945205481</v>
       </c>
-      <c r="L52">
+      <c r="K52">
         <v>437736.7123287668</v>
       </c>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
-      <c r="H53">
-        <v>28600000</v>
-      </c>
-      <c r="J53">
+      <c r="G53">
+        <v>28600000</v>
+      </c>
+      <c r="I53">
         <v>9316.547945205481</v>
       </c>
-      <c r="L53">
+      <c r="K53">
         <v>447053.2602739722</v>
       </c>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
-      <c r="H54">
-        <v>28600000</v>
-      </c>
-      <c r="J54">
+      <c r="G54">
+        <v>28600000</v>
+      </c>
+      <c r="I54">
         <v>9316.547945205481</v>
       </c>
-      <c r="L54">
+      <c r="K54">
         <v>456369.8082191777</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:11">
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>66</v>
       </c>
-      <c r="H55">
-        <v>28600000</v>
-      </c>
-      <c r="J55">
+      <c r="G55">
+        <v>28600000</v>
+      </c>
+      <c r="I55">
         <v>9316.547945205481</v>
       </c>
-      <c r="L55">
+      <c r="K55">
         <v>465686.3561643832</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:11">
       <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
-      <c r="H56">
-        <v>28600000</v>
-      </c>
-      <c r="J56">
+      <c r="G56">
+        <v>28600000</v>
+      </c>
+      <c r="I56">
         <v>9316.547945205481</v>
       </c>
-      <c r="L56">
+      <c r="K56">
         <v>475002.9041095886</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:11">
       <c r="B57">
         <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
-      <c r="H57">
-        <v>28600000</v>
-      </c>
-      <c r="J57">
+      <c r="G57">
+        <v>28600000</v>
+      </c>
+      <c r="I57">
         <v>9316.547945205481</v>
       </c>
-      <c r="L57">
+      <c r="K57">
         <v>484319.4520547941</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:11">
       <c r="B58">
         <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
       </c>
-      <c r="H58">
-        <v>28600000</v>
-      </c>
-      <c r="J58">
+      <c r="G58">
+        <v>28600000</v>
+      </c>
+      <c r="I58">
         <v>9316.547945205481</v>
       </c>
-      <c r="L58">
+      <c r="K58">
         <v>493635.9999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:11">
       <c r="B59">
         <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
-      <c r="H59">
-        <v>28600000</v>
-      </c>
-      <c r="J59">
+      <c r="G59">
+        <v>28600000</v>
+      </c>
+      <c r="I59">
         <v>9316.547945205481</v>
       </c>
-      <c r="L59">
+      <c r="K59">
         <v>502952.5479452051</v>
       </c>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:11">
       <c r="B60">
         <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
-      <c r="H60">
-        <v>28600000</v>
-      </c>
-      <c r="J60">
+      <c r="G60">
+        <v>28600000</v>
+      </c>
+      <c r="I60">
         <v>9316.547945205481</v>
       </c>
-      <c r="L60">
+      <c r="K60">
         <v>512269.0958904105</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:11">
       <c r="B61">
         <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
-      <c r="H61">
-        <v>28600000</v>
-      </c>
-      <c r="J61">
+      <c r="G61">
+        <v>28600000</v>
+      </c>
+      <c r="I61">
         <v>9316.547945205481</v>
       </c>
-      <c r="L61">
+      <c r="K61">
         <v>521585.643835616</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:11">
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
-      <c r="H62">
-        <v>28600000</v>
-      </c>
-      <c r="J62">
+      <c r="G62">
+        <v>28600000</v>
+      </c>
+      <c r="I62">
         <v>9316.547945205481</v>
       </c>
-      <c r="L62">
+      <c r="K62">
         <v>530902.1917808215</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:11">
       <c r="B63">
         <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
-      <c r="H63">
-        <v>28600000</v>
-      </c>
-      <c r="J63">
+      <c r="G63">
+        <v>28600000</v>
+      </c>
+      <c r="I63">
         <v>9316.547945205481</v>
       </c>
-      <c r="L63">
+      <c r="K63">
         <v>540218.739726027</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:11">
       <c r="B64">
         <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
-      <c r="H64">
-        <v>28600000</v>
-      </c>
-      <c r="J64">
+      <c r="G64">
+        <v>28600000</v>
+      </c>
+      <c r="I64">
         <v>9316.547945205481</v>
       </c>
-      <c r="L64">
+      <c r="K64">
         <v>549535.2876712325</v>
       </c>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:11">
       <c r="B65">
         <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
-      <c r="H65">
-        <v>28600000</v>
-      </c>
-      <c r="J65">
+      <c r="G65">
+        <v>28600000</v>
+      </c>
+      <c r="I65">
         <v>9316.547945205481</v>
       </c>
-      <c r="L65">
+      <c r="K65">
         <v>558851.835616438</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:11">
       <c r="B66">
         <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
-      <c r="E66">
-        <v>11.85</v>
-      </c>
-      <c r="H66">
-        <v>28600000</v>
-      </c>
-      <c r="J66">
+      <c r="G66">
+        <v>28600000</v>
+      </c>
+      <c r="I66">
         <v>9285.205479452054</v>
       </c>
-      <c r="L66">
+      <c r="K66">
         <v>568137.04109589</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:11">
       <c r="B67">
         <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
-      <c r="H67">
-        <v>28600000</v>
-      </c>
-      <c r="J67">
+      <c r="G67">
+        <v>28600000</v>
+      </c>
+      <c r="I67">
         <v>9285.205479452054</v>
       </c>
-      <c r="L67">
+      <c r="K67">
         <v>577422.246575342</v>
       </c>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:11">
       <c r="B68">
         <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
       </c>
-      <c r="H68">
-        <v>28600000</v>
-      </c>
-      <c r="J68">
+      <c r="G68">
+        <v>28600000</v>
+      </c>
+      <c r="I68">
         <v>9285.205479452054</v>
       </c>
-      <c r="L68">
-        <v>9285.205479452054</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12">
+      <c r="K68">
+        <v>586707.4520547941</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
       <c r="B69">
         <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
-      <c r="H69">
-        <v>28600000</v>
-      </c>
-      <c r="J69">
+      <c r="G69">
+        <v>28600000</v>
+      </c>
+      <c r="I69">
         <v>9285.205479452054</v>
       </c>
-      <c r="L69">
-        <v>9285.205479452054</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
+      <c r="K69">
+        <v>595992.6575342461</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
       <c r="B70">
         <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
-      <c r="H70">
-        <v>28600000</v>
-      </c>
-      <c r="J70">
+      <c r="G70">
+        <v>28600000</v>
+      </c>
+      <c r="I70">
         <v>9285.205479452054</v>
       </c>
-      <c r="L70">
-        <v>18570.41095890411</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12">
+      <c r="K70">
+        <v>605277.8630136981</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
       <c r="B71">
         <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
-      <c r="H71">
-        <v>28600000</v>
-      </c>
-      <c r="J71">
+      <c r="G71">
+        <v>28600000</v>
+      </c>
+      <c r="I71">
         <v>9285.205479452054</v>
       </c>
-      <c r="L71">
-        <v>27855.61643835616</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
+      <c r="K71">
+        <v>614563.0684931502</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
       <c r="B72">
         <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
-      <c r="H72">
-        <v>28600000</v>
-      </c>
-      <c r="J72">
+      <c r="G72">
+        <v>28600000</v>
+      </c>
+      <c r="I72">
         <v>9285.205479452054</v>
       </c>
-      <c r="L72">
-        <v>37140.82191780821</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="K72">
+        <v>623848.2739726022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
       <c r="B73">
         <v>71</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
-      <c r="H73">
-        <v>28600000</v>
-      </c>
-      <c r="J73">
+      <c r="G73">
+        <v>28600000</v>
+      </c>
+      <c r="I73">
         <v>9285.205479452054</v>
       </c>
-      <c r="L73">
-        <v>46426.02739726027</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
+      <c r="K73">
+        <v>633133.4794520542</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
       <c r="B74">
         <v>72</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
-      <c r="H74">
-        <v>28600000</v>
-      </c>
-      <c r="J74">
+      <c r="G74">
+        <v>28600000</v>
+      </c>
+      <c r="I74">
         <v>9285.205479452054</v>
       </c>
-      <c r="L74">
-        <v>55711.23287671232</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
+      <c r="K74">
+        <v>642418.6849315063</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
       <c r="B75">
         <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
-      <c r="H75">
-        <v>28600000</v>
-      </c>
-      <c r="J75">
+      <c r="G75">
+        <v>28600000</v>
+      </c>
+      <c r="I75">
         <v>9285.205479452054</v>
       </c>
-      <c r="L75">
+      <c r="K75">
+        <v>651703.8904109583</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76">
+        <v>28600000</v>
+      </c>
+      <c r="I76">
         <v>9285.205479452054</v>
+      </c>
+      <c r="K76">
+        <v>660989.0958904104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77">
+        <v>28600000</v>
+      </c>
+      <c r="I77">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K77">
+        <v>670274.3013698624</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78">
+        <v>28600000</v>
+      </c>
+      <c r="I78">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K78">
+        <v>679559.5068493144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>29998495</v>
+      </c>
+      <c r="G3">
+        <v>29998495</v>
+      </c>
+      <c r="I3">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="K3">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="M3">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>29998495</v>
+      </c>
+      <c r="I4">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="K4">
+        <v>18837.41110684932</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>29998495</v>
+      </c>
+      <c r="I5">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="K5">
+        <v>28256.11666027398</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>29998495</v>
+      </c>
+      <c r="I6">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="K6">
+        <v>37674.82221369864</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>29998495</v>
+      </c>
+      <c r="I7">
+        <v>9418.705553424659</v>
+      </c>
+      <c r="K7">
+        <v>47093.5277671233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>10463712</v>
+      </c>
+      <c r="G8">
+        <v>40462207</v>
+      </c>
+      <c r="I8">
+        <v>12701.1576739726</v>
+      </c>
+      <c r="K8">
+        <v>59794.68544109591</v>
+      </c>
+      <c r="M8">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>2007996</v>
+      </c>
+      <c r="G9">
+        <v>42470203</v>
+      </c>
+      <c r="I9">
+        <v>13329.41286082192</v>
+      </c>
+      <c r="K9">
+        <v>73124.09830191782</v>
+      </c>
+      <c r="M9">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>6320870</v>
+      </c>
+      <c r="G10">
+        <v>48791073</v>
+      </c>
+      <c r="I10">
+        <v>15310.52937589041</v>
+      </c>
+      <c r="K10">
+        <v>88434.62767780824</v>
+      </c>
+      <c r="M10">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>25796277</v>
+      </c>
+      <c r="G11">
+        <v>74587350</v>
+      </c>
+      <c r="I11">
+        <v>18592.98149643836</v>
+      </c>
+      <c r="K11">
+        <v>107027.6091742466</v>
+      </c>
+      <c r="M11">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>38141137.44</v>
+      </c>
+      <c r="G12">
+        <v>112728487.44</v>
+      </c>
+      <c r="I12">
+        <v>30536.90480984109</v>
+      </c>
+      <c r="K12">
+        <v>137564.5139840877</v>
+      </c>
+      <c r="M12">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>112728487.44</v>
+      </c>
+      <c r="I13">
+        <v>30536.90480984109</v>
+      </c>
+      <c r="K13">
+        <v>168101.4187939288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>112728487.44</v>
+      </c>
+      <c r="I14">
+        <v>30536.90480984109</v>
+      </c>
+      <c r="K14">
+        <v>198638.3236037699</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>96821056</v>
+      </c>
+      <c r="G15">
+        <v>209549543.44</v>
+      </c>
+      <c r="I15">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K15">
+        <v>241119.1517270137</v>
+      </c>
+      <c r="M15">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>209549543.44</v>
+      </c>
+      <c r="I16">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K16">
+        <v>283599.9798502575</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>209549543.44</v>
+      </c>
+      <c r="I17">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K17">
+        <v>326080.8079735013</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>209549543.44</v>
+      </c>
+      <c r="I18">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K18">
+        <v>368561.6360967451</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19">
+        <v>209549543.44</v>
+      </c>
+      <c r="I19">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K19">
+        <v>411042.464219989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20">
+        <v>209549543.44</v>
+      </c>
+      <c r="I20">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K20">
+        <v>453523.2923432328</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>209549543.44</v>
+      </c>
+      <c r="I21">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K21">
+        <v>496004.1204664766</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22">
+        <v>209549543.44</v>
+      </c>
+      <c r="I22">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K22">
+        <v>538484.9485897204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23">
+        <v>209549543.44</v>
+      </c>
+      <c r="I23">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K23">
+        <v>580965.7767129643</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>209549543.44</v>
+      </c>
+      <c r="I24">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K24">
+        <v>623446.6048362082</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>209549543.44</v>
+      </c>
+      <c r="I25">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K25">
+        <v>665927.432959452</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>209549543.44</v>
+      </c>
+      <c r="I26">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K26">
+        <v>708408.2610826959</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27">
+        <v>209549543.44</v>
+      </c>
+      <c r="I27">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K27">
+        <v>750889.0892059398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28">
+        <v>209549543.44</v>
+      </c>
+      <c r="I28">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K28">
+        <v>793369.9173291837</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>209549543.44</v>
+      </c>
+      <c r="I29">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K29">
+        <v>835850.7454524275</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30">
+        <v>209549543.44</v>
+      </c>
+      <c r="I30">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K30">
+        <v>878331.5735756714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <v>209549543.44</v>
+      </c>
+      <c r="I31">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K31">
+        <v>920812.4016989153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32">
+        <v>209549543.44</v>
+      </c>
+      <c r="I32">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K32">
+        <v>963293.2298221592</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33">
+        <v>209549543.44</v>
+      </c>
+      <c r="I33">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K33">
+        <v>1005774.057945403</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34">
+        <v>209549543.44</v>
+      </c>
+      <c r="I34">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K34">
+        <v>1048254.886068647</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35">
+        <v>209549543.44</v>
+      </c>
+      <c r="I35">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K35">
+        <v>1090735.714191891</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/data/reports/bank_data.xlsx
+++ b/website/data/reports/bank_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="94">
   <si>
     <t>Principal</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>13/02/2022</t>
+  </si>
+  <si>
+    <t>14/02/2022</t>
+  </si>
+  <si>
+    <t>15/02/2022</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>17/02/2022</t>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M84"/>
+  <dimension ref="B1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,14 +1869,20 @@
       <c r="C71" t="s">
         <v>76</v>
       </c>
+      <c r="E71">
+        <v>70000000</v>
+      </c>
       <c r="G71">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I71">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K71">
-        <v>1423857.534246575</v>
+        <v>1444454.794520548</v>
+      </c>
+      <c r="M71">
+        <v>10.74</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -1875,13 +1893,13 @@
         <v>77</v>
       </c>
       <c r="G72">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I72">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K72">
-        <v>1494767.123287671</v>
+        <v>1535961.643835616</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -1892,13 +1910,13 @@
         <v>78</v>
       </c>
       <c r="G73">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I73">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K73">
-        <v>1565676.712328767</v>
+        <v>1627468.493150685</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -1909,13 +1927,13 @@
         <v>79</v>
       </c>
       <c r="G74">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I74">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K74">
-        <v>1636586.301369863</v>
+        <v>1718975.342465753</v>
       </c>
     </row>
     <row r="75" spans="2:13">
@@ -1926,13 +1944,13 @@
         <v>80</v>
       </c>
       <c r="G75">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I75">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K75">
-        <v>1707495.890410959</v>
+        <v>1810482.191780821</v>
       </c>
     </row>
     <row r="76" spans="2:13">
@@ -1943,13 +1961,13 @@
         <v>81</v>
       </c>
       <c r="G76">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I76">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K76">
-        <v>1778405.479452055</v>
+        <v>1901989.04109589</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -1960,13 +1978,13 @@
         <v>82</v>
       </c>
       <c r="G77">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I77">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K77">
-        <v>1849315.068493151</v>
+        <v>1993495.890410958</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -1977,13 +1995,13 @@
         <v>83</v>
       </c>
       <c r="G78">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I78">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K78">
-        <v>1920224.657534247</v>
+        <v>2085002.739726027</v>
       </c>
     </row>
     <row r="79" spans="2:13">
@@ -1994,13 +2012,13 @@
         <v>84</v>
       </c>
       <c r="G79">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I79">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K79">
-        <v>1991134.246575342</v>
+        <v>2176509.589041095</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -2011,13 +2029,13 @@
         <v>85</v>
       </c>
       <c r="G80">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I80">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K80">
-        <v>2062043.835616438</v>
+        <v>2268016.438356164</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -2028,13 +2046,13 @@
         <v>86</v>
       </c>
       <c r="G81">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I81">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K81">
-        <v>2132953.424657534</v>
+        <v>2359523.287671233</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -2045,13 +2063,13 @@
         <v>87</v>
       </c>
       <c r="G82">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I82">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K82">
-        <v>2203863.01369863</v>
+        <v>2451030.136986301</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -2062,13 +2080,13 @@
         <v>88</v>
       </c>
       <c r="G83">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I83">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K83">
-        <v>2274772.602739726</v>
+        <v>2542536.98630137</v>
       </c>
     </row>
     <row r="84" spans="2:11">
@@ -2079,13 +2097,81 @@
         <v>89</v>
       </c>
       <c r="G84">
-        <v>230000000</v>
+        <v>300000000</v>
       </c>
       <c r="I84">
-        <v>70909.5890410959</v>
+        <v>91506.84931506851</v>
       </c>
       <c r="K84">
-        <v>2345682.191780821</v>
+        <v>2634043.835616439</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <v>300000000</v>
+      </c>
+      <c r="I85">
+        <v>91506.84931506851</v>
+      </c>
+      <c r="K85">
+        <v>2725550.684931507</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86">
+        <v>300000000</v>
+      </c>
+      <c r="I86">
+        <v>91506.84931506851</v>
+      </c>
+      <c r="K86">
+        <v>2817057.534246576</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87">
+        <v>300000000</v>
+      </c>
+      <c r="I87">
+        <v>91506.84931506851</v>
+      </c>
+      <c r="K87">
+        <v>2908564.383561645</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88">
+        <v>300000000</v>
+      </c>
+      <c r="I88">
+        <v>91506.84931506851</v>
+      </c>
+      <c r="K88">
+        <v>3000071.232876713</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M50"/>
+  <dimension ref="B1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2966,6 +3052,74 @@
       </c>
       <c r="K50">
         <v>787068.4931506853</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51">
+        <v>45000000</v>
+      </c>
+      <c r="I51">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K51">
+        <v>803465.753424658</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52">
+        <v>45000000</v>
+      </c>
+      <c r="I52">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K52">
+        <v>819863.0136986306</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53">
+        <v>45000000</v>
+      </c>
+      <c r="I53">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K53">
+        <v>836260.2739726033</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54">
+        <v>45000000</v>
+      </c>
+      <c r="I54">
+        <v>16397.2602739726</v>
+      </c>
+      <c r="K54">
+        <v>852657.5342465759</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M78"/>
+  <dimension ref="B1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4319,6 +4473,74 @@
       </c>
       <c r="K78">
         <v>679559.5068493144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79">
+        <v>28600000</v>
+      </c>
+      <c r="I79">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K79">
+        <v>688844.7123287665</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80">
+        <v>28600000</v>
+      </c>
+      <c r="I80">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K80">
+        <v>698129.9178082185</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81">
+        <v>28600000</v>
+      </c>
+      <c r="I81">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K81">
+        <v>707415.1232876705</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82">
+        <v>28600000</v>
+      </c>
+      <c r="I82">
+        <v>9285.205479452054</v>
+      </c>
+      <c r="K82">
+        <v>716700.3287671226</v>
       </c>
     </row>
   </sheetData>
@@ -4332,7 +4554,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M35"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4982,6 +5204,74 @@
         <v>1090735.714191891</v>
       </c>
     </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36">
+        <v>209549543.44</v>
+      </c>
+      <c r="I36">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K36">
+        <v>1133216.542315135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37">
+        <v>209549543.44</v>
+      </c>
+      <c r="I37">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K37">
+        <v>1175697.370438378</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38">
+        <v>209549543.44</v>
+      </c>
+      <c r="I38">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K38">
+        <v>1218178.198561622</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39">
+        <v>209549543.44</v>
+      </c>
+      <c r="I39">
+        <v>42480.82812324383</v>
+      </c>
+      <c r="K39">
+        <v>1260659.026684866</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:G1"/>
